--- a/BACKUP_Export_from_SQL__23.09.2020_11h-54m_test.xlsx
+++ b/BACKUP_Export_from_SQL__23.09.2020_11h-54m_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="176">
   <si>
     <t>question_difficulty</t>
   </si>
@@ -483,9 +483,6 @@
     <t>10_1D</t>
   </si>
   <si>
-    <t>&lt;p&gt;$v1 / $v2 = $r1&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>$v1 / $v2</t>
   </si>
   <si>
@@ -501,9 +498,6 @@
     <t>HEGHER</t>
   </si>
   <si>
-    <t>&lt;p&gt;$v1 +$v2 + $v3 = $r1&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>$v1+$v2 + $v3</t>
   </si>
   <si>
@@ -519,12 +513,6 @@
     <t>Hier gets ums was</t>
   </si>
   <si>
-    <t>_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;DAs ist die BEschreibung NACH einem Bild&lt;/p&gt;_x000D_
-&lt;p&gt;$v1 + $v2 = $r1&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>$v1+$v2</t>
   </si>
   <si>
@@ -534,90 +522,36 @@
     <t>TTEESTU</t>
   </si>
   <si>
-    <t>&lt;p&gt;Das ist die Beschreibung VOR einem BIKLD&lt;/p&gt;_x000D_
-&lt;p&gt;$v1 + $v2 = $r1&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>il_0_mob_2105203</t>
   </si>
   <si>
     <t>Hedger</t>
   </si>
   <si>
-    <t>&lt;p&gt;NEW&lt;/p&gt;_x000D_
-&lt;p&gt;$v1 - $v2 = $r1&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Neue Berechung ist komplett!&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>il_0_mob_2105204</t>
   </si>
   <si>
-    <t>Berechnung der Leistung</t>
-  </si>
-  <si>
-    <t>Elektrische Leistung 1</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Gegeben ist das Typenschild mit folgenden Angaben:&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{M_{N}}\) = $v1 \(\mathrm{Nm}\)&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{n_{N}}\) = 2 750 \(\frac{1}{min}\)&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{P_{N}}\) = 18,7 \(\mathrm{kW}\)&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{U_{N}}\) = 400 \(\mathrm{V}\)&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{I_{N}}\) = 37,53 \(\mathrm{A}\)&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{cos\, \phi_{N}}\) = 0,8&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{\eta_{N}}\) = 0,9&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Bestimmen Sie die elektrisch aufgenommene Leistung \(\mathrm{P_{el}}\) des Motors unter Nennbelastung (\(\mathrm{M_{N}}\), \(\mathrm{n_{N}}\)).&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;\(\mathrm{P_{el}}\)  = $r1 \(\mathrm{kW}\)&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>$v1*0+20.7</t>
-  </si>
-  <si>
     <t>EMPTY</t>
   </si>
   <si>
-    <t>P0Y0M0DT0H20M0S</t>
-  </si>
-  <si>
-    <t>ETAT V1 Nachquiz Stromteiler</t>
-  </si>
-  <si>
-    <t>ETAT V1 Nachquiz Stromteiler Frage 5</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Gegeben ist die obige Schaltung mit der Gesamtspannung U&lt;sub&gt;0&lt;/sub&gt; (Quellenspannung). Die Quelle hat einen Innenwiderstand R&lt;sub&gt;i&lt;/sub&gt;. An der Steckdose mit der Klemmenspannung U&lt;sub&gt;K&lt;/sub&gt; werden zwei Widerstände R&lt;sub&gt;1&lt;/sub&gt; und R&lt;sub&gt;2&lt;/sub&gt; parallel angeschlossen, so dass sich eine Reihenschaltung aus R&lt;sub&gt;i&lt;/sub&gt; und dem Ersatzwiderstand R&lt;sub&gt;1//2&lt;/sub&gt; der parallelen Widerständen R&lt;sub&gt;1&lt;/sub&gt; und R&lt;sub&gt;2&lt;/sub&gt; ergibt.&lt;/p&gt;_x000D_
-&lt;p&gt;&lt;/p&gt;_x000D_
-&lt;p&gt;Es ist gegeben:&lt;/p&gt;_x000D_
-&lt;p&gt;- Widerstand &lt;em&gt;R&lt;/em&gt;&lt;sub&gt;1&lt;/sub&gt; = $v1 Ω&lt;/p&gt;_x000D_
-&lt;p&gt;- Widerstand &lt;em&gt;R&lt;/em&gt;&lt;sub&gt;1//2&lt;/sub&gt; = $v2 Ω&lt;/p&gt;_x000D_
-&lt;p&gt;- Widerstand R&lt;sub&gt;i&lt;/sub&gt; = $v3 Ω&lt;/p&gt;_x000D_
-&lt;p&gt;- Gesamtstrom I&lt;sub&gt;0&lt;/sub&gt; = $v4 A&lt;/p&gt;_x000D_
-&lt;p&gt; &lt;/p&gt;_x000D_
-&lt;p&gt;Berechnen Sie den Strom I&lt;sub&gt;1&lt;/sub&gt;:&lt;/p&gt;_x000D_
-&lt;p&gt;I&lt;sub&gt;1&lt;/sub&gt; = $r1 A&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>$v4 * ($v2) / $v1 + 0 * $v3</t>
-  </si>
-  <si>
-    <t>Heißleiter</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Bestimmen Sie den Widerstand eines NTC bei der Temperatur &lt;span class="latex"&gt;T = &lt;/span&gt;$v1 K mithilfe der Kennlinie &lt;span class="latex"&gt;R \left( T \right) = R_N \cdot e^{B\cdot\left( \frac{1}{T}-\frac{1}{T_N} \right)}=&lt;/span&gt; $r1 (in Ohm). Nehmen Sie &lt;span class="latex"&gt;B=3000 \text{ K}&lt;/span&gt; und &lt;span class="latex"&gt;R_N = 1000 \text{ } \Omega&lt;/span&gt; sowie &lt;span class="latex"&gt;T_N = 300 \text{ K}&lt;/span&gt; an. Nehmen Sie nun an, dass sich die Temperatur des NTC um 10 K erhöht. Berechnen Sie erneut den Widerstand $r2 (in Ohm). Bei der niedrigeren Temperatur ist der Widerstand $r3 -mal höher als bei der höheren Temperatur.&lt;/p&gt;_x000D_
-&lt;p&gt;Hinweis: Die Temperatur in Kelvin (absolute Temperatur) lässt sich in Grad Celsius umrechnen, indem man vom Wert der Temperatur in Kelvin 273,15 abzieht. Beispiel: 300 K sind (300-273,15)°C=26,85°C.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>1000*e^((1/($v1)-(1/300))</t>
-  </si>
-  <si>
-    <t>P0Y0M0DT0H19M0S</t>
+    <t>$v1 / $v2 = $r1</t>
+  </si>
+  <si>
+    <t>$v1 +$v2 + $v3 = $r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DAs ist die BEschreibung NACH einem Bild
+$v1 + $v2 = $r1</t>
+  </si>
+  <si>
+    <t>Das ist die Beschreibung VOR einem BIKLD
+$v1 + $v2 = $r1</t>
+  </si>
+  <si>
+    <t>NEW
+$v1 - $v2 = $r1
+Neue Berechung ist komplett!</t>
   </si>
 </sst>
 </file>
@@ -682,10 +616,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1147,14 +1084,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EV9"/>
+  <dimension ref="A1:EV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EA1" workbookViewId="0">
-      <selection activeCell="EQ12" sqref="EQ12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" width="187.140625" customWidth="1"/>
     <col min="147" max="147" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1627,10 +1565,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -1699,16 +1637,16 @@
       <c r="AN2" s="2"/>
       <c r="AO2" s="2"/>
       <c r="AP2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
@@ -1822,10 +1760,10 @@
       <c r="EO2" s="2"/>
       <c r="EP2" s="2"/>
       <c r="EQ2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="ES2" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="ES2" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="ET2" s="2"/>
       <c r="EU2" s="2"/>
@@ -1838,14 +1776,14 @@
         <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1900,30 +1838,30 @@
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN3" s="2"/>
       <c r="AO3" s="2"/>
       <c r="AP3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT3" s="2"/>
       <c r="AU3" s="2"/>
@@ -2037,10 +1975,10 @@
       <c r="EO3" s="2"/>
       <c r="EP3" s="2"/>
       <c r="EQ3" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="ES3" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="ET3" s="2"/>
       <c r="EU3" s="2"/>
@@ -2053,16 +1991,16 @@
         <v>152</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -2103,44 +2041,44 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN4" s="2"/>
       <c r="AO4" s="2"/>
       <c r="AP4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS4" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT4" s="2"/>
       <c r="AU4" s="2"/>
@@ -2254,10 +2192,10 @@
       <c r="EO4" s="2"/>
       <c r="EP4" s="2"/>
       <c r="EQ4" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="ES4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="ET4" s="2"/>
       <c r="EU4" s="2"/>
@@ -2270,14 +2208,14 @@
         <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>170</v>
+      <c r="F5" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -2318,44 +2256,44 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN5" s="2"/>
       <c r="AO5" s="2"/>
       <c r="AP5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT5" s="2"/>
       <c r="AU5" s="2"/>
@@ -2469,13 +2407,13 @@
       <c r="EO5" s="2"/>
       <c r="EP5" s="2"/>
       <c r="EQ5" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="ER5" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="ES5" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="ET5" s="2"/>
       <c r="EU5" s="2"/>
@@ -2488,14 +2426,14 @@
         <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>173</v>
+      <c r="F6" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2536,44 +2474,44 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AN6" s="2"/>
       <c r="AO6" s="2"/>
       <c r="AP6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AR6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
@@ -2687,672 +2625,14 @@
       <c r="EO6" s="2"/>
       <c r="EP6" s="2"/>
       <c r="EQ6" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="ES6" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="ET6" s="2"/>
       <c r="EU6" s="2"/>
       <c r="EV6" s="2"/>
-    </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2">
-        <v>65</v>
-      </c>
-      <c r="S7" s="2">
-        <v>65</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1</v>
-      </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="2">
-        <v>50</v>
-      </c>
-      <c r="CB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="CC7" s="2">
-        <v>3</v>
-      </c>
-      <c r="CD7" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
-      <c r="CH7" s="2"/>
-      <c r="CI7" s="2"/>
-      <c r="CJ7" s="2"/>
-      <c r="CK7" s="2"/>
-      <c r="CL7" s="2"/>
-      <c r="CM7" s="2"/>
-      <c r="CN7" s="2"/>
-      <c r="CO7" s="2"/>
-      <c r="CP7" s="2"/>
-      <c r="CQ7" s="2"/>
-      <c r="CR7" s="2"/>
-      <c r="CS7" s="2"/>
-      <c r="CT7" s="2"/>
-      <c r="CU7" s="2"/>
-      <c r="CV7" s="2"/>
-      <c r="CW7" s="2"/>
-      <c r="CX7" s="2"/>
-      <c r="CY7" s="2"/>
-      <c r="CZ7" s="2"/>
-      <c r="DA7" s="2"/>
-      <c r="DB7" s="2"/>
-      <c r="DC7" s="2"/>
-      <c r="DD7" s="2"/>
-      <c r="DE7" s="2"/>
-      <c r="DF7" s="2"/>
-      <c r="DG7" s="2"/>
-      <c r="DH7" s="2"/>
-      <c r="DI7" s="2"/>
-      <c r="DJ7" s="2"/>
-      <c r="DK7" s="2"/>
-      <c r="DL7" s="2"/>
-      <c r="DM7" s="2"/>
-      <c r="DN7" s="2"/>
-      <c r="DO7" s="2"/>
-      <c r="DP7" s="2"/>
-      <c r="DQ7" s="2"/>
-      <c r="DR7" s="2"/>
-      <c r="DS7" s="2"/>
-      <c r="DT7" s="2"/>
-      <c r="DU7" s="2"/>
-      <c r="DV7" s="2"/>
-      <c r="DW7" s="2"/>
-      <c r="DX7" s="2"/>
-      <c r="DY7" s="2"/>
-      <c r="DZ7" s="2"/>
-      <c r="EA7" s="2"/>
-      <c r="EB7" s="2"/>
-      <c r="EC7" s="2"/>
-      <c r="ED7" s="2"/>
-      <c r="EE7" s="2"/>
-      <c r="EF7" s="2"/>
-      <c r="EG7" s="2"/>
-      <c r="EH7" s="2"/>
-      <c r="EI7" s="2"/>
-      <c r="EJ7" s="2"/>
-      <c r="EK7" s="2"/>
-      <c r="EL7" s="2"/>
-      <c r="EM7" s="2"/>
-      <c r="EN7" s="2"/>
-      <c r="EO7" s="2"/>
-      <c r="EP7" s="2"/>
-      <c r="EQ7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="ER7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="ES7" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="ET7" s="2"/>
-      <c r="EU7" s="2"/>
-      <c r="EV7" s="2"/>
-    </row>
-    <row r="8" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
-        <v>11</v>
-      </c>
-      <c r="S8" s="2">
-        <v>20</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>1</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
-      <c r="BK8" s="2"/>
-      <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2">
-        <v>-1000</v>
-      </c>
-      <c r="CA8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="CB8" s="2">
-        <v>1</v>
-      </c>
-      <c r="CC8" s="2">
-        <v>10</v>
-      </c>
-      <c r="CD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
-      <c r="CI8" s="2"/>
-      <c r="CJ8" s="2"/>
-      <c r="CK8" s="2"/>
-      <c r="CL8" s="2"/>
-      <c r="CM8" s="2"/>
-      <c r="CN8" s="2"/>
-      <c r="CO8" s="2"/>
-      <c r="CP8" s="2"/>
-      <c r="CQ8" s="2"/>
-      <c r="CR8" s="2"/>
-      <c r="CS8" s="2"/>
-      <c r="CT8" s="2"/>
-      <c r="CU8" s="2"/>
-      <c r="CV8" s="2"/>
-      <c r="CW8" s="2"/>
-      <c r="CX8" s="2"/>
-      <c r="CY8" s="2"/>
-      <c r="CZ8" s="2"/>
-      <c r="DA8" s="2"/>
-      <c r="DB8" s="2"/>
-      <c r="DC8" s="2"/>
-      <c r="DD8" s="2"/>
-      <c r="DE8" s="2"/>
-      <c r="DF8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DH8" s="2"/>
-      <c r="DI8" s="2"/>
-      <c r="DJ8" s="2"/>
-      <c r="DK8" s="2"/>
-      <c r="DL8" s="2"/>
-      <c r="DM8" s="2"/>
-      <c r="DN8" s="2"/>
-      <c r="DO8" s="2"/>
-      <c r="DP8" s="2"/>
-      <c r="DQ8" s="2"/>
-      <c r="DR8" s="2"/>
-      <c r="DS8" s="2"/>
-      <c r="DT8" s="2"/>
-      <c r="DU8" s="2"/>
-      <c r="DV8" s="2"/>
-      <c r="DW8" s="2"/>
-      <c r="DX8" s="2"/>
-      <c r="DY8" s="2"/>
-      <c r="DZ8" s="2"/>
-      <c r="EA8" s="2"/>
-      <c r="EB8" s="2"/>
-      <c r="EC8" s="2"/>
-      <c r="ED8" s="2"/>
-      <c r="EE8" s="2"/>
-      <c r="EF8" s="2"/>
-      <c r="EG8" s="2"/>
-      <c r="EH8" s="2"/>
-      <c r="EI8" s="2"/>
-      <c r="EJ8" s="2"/>
-      <c r="EK8" s="2"/>
-      <c r="EL8" s="2"/>
-      <c r="EM8" s="2"/>
-      <c r="EN8" s="2"/>
-      <c r="EO8" s="2"/>
-      <c r="EP8" s="2"/>
-      <c r="EQ8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="ER8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="ES8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="ET8" s="2"/>
-      <c r="EU8" s="2"/>
-      <c r="EV8" s="2"/>
-    </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2">
-        <v>273</v>
-      </c>
-      <c r="S9" s="2">
-        <v>373</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
-        <v>5</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AL9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AS9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="2">
-        <v>1000000</v>
-      </c>
-      <c r="CB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="2">
-        <v>10</v>
-      </c>
-      <c r="CD9" s="2">
-        <v>2</v>
-      </c>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="2"/>
-      <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
-      <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
-      <c r="DN9" s="2"/>
-      <c r="DO9" s="2"/>
-      <c r="DP9" s="2"/>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2"/>
-      <c r="EA9" s="2"/>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
-      <c r="EP9" s="2"/>
-      <c r="EQ9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="ER9" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="ES9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="ET9" s="2"/>
-      <c r="EU9" s="2"/>
-      <c r="EV9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
